--- a/2020/sbst-org.xlsx
+++ b/2020/sbst-org.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jmrs3/Systems/searchbasedsoftwaretesting.github.io/2020/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\erik\AppData\Local\Packages\CanonicalGroupLimited.UbuntuonWindows_79rhkp1fndgsc\LocalState\rootfs\home\erik\sbst20\searchbasedsoftwaretesting.github.io\2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65D9BEC5-E03B-1B49-AF55-D74C70514071}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A449D729-D453-450A-927E-8CBB3744082B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25100" windowHeight="14940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1464" yWindow="1464" windowWidth="17280" windowHeight="9102" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PC" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="69">
   <si>
     <t>PC Member</t>
   </si>
@@ -227,6 +227,12 @@
   </si>
   <si>
     <t>Federica Sarro</t>
+  </si>
+  <si>
+    <t>Kate Bowers</t>
+  </si>
+  <si>
+    <t>kmlabell@oakland.edu</t>
   </si>
 </sst>
 </file>
@@ -293,7 +299,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -304,6 +310,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -585,20 +592,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="22.83203125" customWidth="1"/>
-    <col min="2" max="2" width="33.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5" customWidth="1"/>
+    <col min="1" max="1" width="22.83984375" customWidth="1"/>
+    <col min="2" max="2" width="33.15625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.47265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -609,31 +616,40 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -644,7 +660,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -655,7 +671,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -663,7 +679,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -674,7 +690,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -682,7 +698,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -690,7 +706,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -701,7 +717,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -712,7 +728,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -720,7 +736,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -728,7 +744,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -739,60 +755,90 @@
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
         <v>17</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
         <v>36</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
         <v>18</v>
       </c>
       <c r="B18" s="6" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
         <v>19</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C19" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
         <v>38</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C20" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="7" t="s">
         <v>43</v>
       </c>
       <c r="B21" s="7" t="s">
         <v>44</v>
+      </c>
+      <c r="C21" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" t="s">
+        <v>67</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C22" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B18" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B22" r:id="rId2" xr:uid="{8CE75B3F-34CB-4468-8D09-B954405B2160}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId2"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -804,15 +850,15 @@
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.9453125" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.83984375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>45</v>
       </c>
@@ -826,7 +872,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A2">
         <v>2008</v>
       </c>
@@ -834,7 +880,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A3">
         <v>2009</v>
       </c>
@@ -842,7 +888,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A4">
         <v>2010</v>
       </c>
@@ -850,7 +896,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A5">
         <v>2011</v>
       </c>
@@ -858,7 +904,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A6">
         <v>2012</v>
       </c>
@@ -866,7 +912,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A7">
         <v>2013</v>
       </c>
@@ -877,7 +923,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A8">
         <v>2014</v>
       </c>
@@ -888,7 +934,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A9">
         <v>2015</v>
       </c>
@@ -899,7 +945,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A10">
         <v>2016</v>
       </c>
@@ -913,7 +959,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A11">
         <v>2017</v>
       </c>
@@ -927,7 +973,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A12">
         <v>2018</v>
       </c>
@@ -941,7 +987,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A13">
         <v>2019</v>
       </c>
@@ -955,7 +1001,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A14">
         <v>2020</v>
       </c>

--- a/2020/sbst-org.xlsx
+++ b/2020/sbst-org.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\erik\AppData\Local\Packages\CanonicalGroupLimited.UbuntuonWindows_79rhkp1fndgsc\LocalState\rootfs\home\erik\sbst20\searchbasedsoftwaretesting.github.io\2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A449D729-D453-450A-927E-8CBB3744082B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B388362-9B8F-4D03-889D-F8C42435681F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1464" yWindow="1464" windowWidth="17280" windowHeight="9102" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12696" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PC" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="69">
   <si>
     <t>PC Member</t>
   </si>
@@ -595,7 +595,7 @@
   <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -678,6 +678,9 @@
       <c r="B7" t="s">
         <v>39</v>
       </c>
+      <c r="C7" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
@@ -704,6 +707,9 @@
       </c>
       <c r="B10" s="2" t="s">
         <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.55000000000000004">
